--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.366000000000003</v>
+        <v>8.446800000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.42200000000003</v>
+        <v>-22.43700000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.98519999999999</v>
+        <v>-22.09630000000001</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.3447</v>
+        <v>6.569100000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4202</v>
+        <v>-21.42799999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4.809199999999995</v>
+        <v>4.793199999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>6.405799999999995</v>
+        <v>5.945499999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>4.478600000000004</v>
+        <v>4.040600000000005</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.43020000000001</v>
+        <v>-22.36380000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.98119999999999</v>
+        <v>-21.91979999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.378899999999999</v>
+        <v>5.317199999999998</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.5264</v>
+        <v>6.791500000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.084700000000001</v>
+        <v>6.4034</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.833299999999999</v>
+        <v>7.861800000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-21.8112</v>
+        <v>-22.07460000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>5.978899999999999</v>
+        <v>5.951500000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>8.713000000000001</v>
+        <v>9.079700000000004</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.635600000000002</v>
+        <v>6.956900000000003</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.920899999999998</v>
+        <v>5.8952</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.064</v>
+        <v>-22.09139999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.575000000000001</v>
+        <v>5.841399999999998</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47379999999999</v>
+        <v>-21.46259999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.667000000000002</v>
+        <v>8.937099999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.19029999999999</v>
+        <v>-20.22089999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.57799999999997</v>
+        <v>-19.48219999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.60979999999999</v>
+        <v>-20.58609999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.5924</v>
+        <v>-19.5015</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.20950000000001</v>
+        <v>-22.24240000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.78729999999999</v>
+        <v>-21.7011</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.08990000000001</v>
+        <v>-21.9947</v>
       </c>
       <c r="B84" t="n">
-        <v>5.572499999999999</v>
+        <v>5.9479</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>6.097599999999997</v>
+        <v>5.9654</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.395900000000001</v>
+        <v>4.351699999999997</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.437099999999996</v>
+        <v>5.451599999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,7 +1762,7 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>5.976500000000003</v>
+        <v>5.401000000000002</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>7.799300000000001</v>
+        <v>7.705000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.031799999999999</v>
+        <v>5.820899999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.87519999999999</v>
+        <v>-21.72449999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>6.212699999999995</v>
+        <v>5.388799999999994</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.97140000000001</v>
+        <v>-22.0667</v>
       </c>
       <c r="B102" t="n">
-        <v>5.925399999999996</v>
+        <v>5.9518</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
